--- a/Filmek.xlsx
+++ b/Filmek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\Projektek\11. osztály\SQL2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453A5E35-1BAD-40DB-8851-F00662A5CAC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B11451-DFFE-48BC-B905-328A03A3FD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{689C372B-C995-47F2-BF04-D3C20E0C6EB1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Cím</t>
   </si>
@@ -79,6 +79,102 @@
   </si>
   <si>
     <t>Andrew Lesnie</t>
+  </si>
+  <si>
+    <t>Elijah Wood, Ian McKellen, Orlando Bloom, Sean Beam</t>
+  </si>
+  <si>
+    <t>Akció, Kaland, Dráma, Fantasy</t>
+  </si>
+  <si>
+    <t>Howard Shore</t>
+  </si>
+  <si>
+    <t>178p</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Nem</t>
+  </si>
+  <si>
+    <t>The Godfather</t>
+  </si>
+  <si>
+    <t>A keresztapa</t>
+  </si>
+  <si>
+    <t>175p</t>
+  </si>
+  <si>
+    <t>Marlon Brando, Al Pacino, James Caan</t>
+  </si>
+  <si>
+    <t>Nino Rota</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t>Gordon Willis</t>
+  </si>
+  <si>
+    <t>Krimi, Dráma</t>
+  </si>
+  <si>
+    <t>Paramount Pictures</t>
+  </si>
+  <si>
+    <t>Se7en</t>
+  </si>
+  <si>
+    <t>Hetedik</t>
+  </si>
+  <si>
+    <t>David Fincher</t>
+  </si>
+  <si>
+    <t>Morgan Freeman, Brad Pitt, Kevin Spacey</t>
+  </si>
+  <si>
+    <t>Krimi, Dráma, Rejtély</t>
+  </si>
+  <si>
+    <t>127p</t>
+  </si>
+  <si>
+    <t>Darius Khondji</t>
+  </si>
+  <si>
+    <t>New Line Cinema, warner</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Blöff</t>
+  </si>
+  <si>
+    <t>Columbia Pictures</t>
+  </si>
+  <si>
+    <t>Tim Maurice-Jones</t>
+  </si>
+  <si>
+    <t>Vígjáték, Krimi</t>
+  </si>
+  <si>
+    <t>Guy Ritchie</t>
+  </si>
+  <si>
+    <t>Jason Statham, Brad Pitt, Stephen Graham</t>
+  </si>
+  <si>
+    <t>John Murphy</t>
+  </si>
+  <si>
+    <t>104p</t>
   </si>
 </sst>
 </file>
@@ -434,21 +530,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10DECCD-51E9-4078-93A5-32549479A38D}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,11 +604,155 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1972</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Filmek.xlsx
+++ b/Filmek.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Downloads\Projektek\11. osztály\SQL2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B11451-DFFE-48BC-B905-328A03A3FD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF053C6-B826-4A20-8088-3D9248013A9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{689C372B-C995-47F2-BF04-D3C20E0C6EB1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{689C372B-C995-47F2-BF04-D3C20E0C6EB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="1NF" sheetId="1" r:id="rId1"/>
+    <sheet name="2NF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="51">
   <si>
     <t>Cím</t>
   </si>
@@ -75,9 +76,6 @@
     <t>Peter Jackson</t>
   </si>
   <si>
-    <t>New Line Cinema, Warner</t>
-  </si>
-  <si>
     <t>Andrew Lesnie</t>
   </si>
   <si>
@@ -175,6 +173,12 @@
   </si>
   <si>
     <t>104p</t>
+  </si>
+  <si>
+    <t>New Line Cinema</t>
+  </si>
+  <si>
+    <t>Warner</t>
   </si>
 </sst>
 </file>
@@ -530,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10DECCD-51E9-4078-93A5-32549479A38D}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +554,7 @@
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,158 +605,684 @@
       <c r="C2" s="1">
         <v>2001</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="1">
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C14" s="1">
+        <v>1972</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1">
-        <v>1972</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="K14" s="1">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C15" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1">
-        <v>1995</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="1">
-        <v>18</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K16" s="1">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EBF96C-6BDB-4C64-8B47-841CEB205F67}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="1">
-        <v>16</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
